--- a/Assets/AA_Rami/research/WineAttributes.xlsx
+++ b/Assets/AA_Rami/research/WineAttributes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git_wine\wine-game\Assets\AA_Rami\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="159">
   <si>
     <t>MainGategories</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Body</t>
   </si>
   <si>
-    <t>Finish</t>
-  </si>
-  <si>
     <t>clear</t>
   </si>
   <si>
@@ -161,12 +158,6 @@
     <t>full</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>blossom</t>
   </si>
   <si>
@@ -491,28 +482,25 @@
     <t>wet wool</t>
   </si>
   <si>
-    <t>Clarity = Hazy</t>
-  </si>
-  <si>
-    <t>on matriisissa</t>
-  </si>
-  <si>
-    <t>Condition = clean</t>
-  </si>
-  <si>
-    <t>Maku esimerkki</t>
-  </si>
-  <si>
-    <t>Floral Blossom</t>
-  </si>
-  <si>
-    <t>Oak Cedar</t>
-  </si>
-  <si>
-    <t>Mineral rubber</t>
-  </si>
-  <si>
-    <t>Flavour</t>
+    <t>Winetype</t>
+  </si>
+  <si>
+    <t>White wine</t>
+  </si>
+  <si>
+    <t>Rose wine</t>
+  </si>
+  <si>
+    <t>Red wine</t>
+  </si>
+  <si>
+    <t>Sparkling White wine</t>
+  </si>
+  <si>
+    <t>Sparkling Rose wine</t>
+  </si>
+  <si>
+    <t>Sparkling Red Wine</t>
   </si>
 </sst>
 </file>
@@ -735,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -756,7 +744,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -767,8 +754,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S35"/>
+  <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,9 +1064,9 @@
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
@@ -1077,918 +1078,872 @@
     <col min="19" max="19" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="25">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="27">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="H2" s="27">
+        <v>4</v>
+      </c>
+      <c r="I2" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="C4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="30">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="E5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="30">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="30">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="30">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="30">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="30">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="31">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="F13" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="G13" s="9">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9">
+        <v>6</v>
+      </c>
+      <c r="K13" s="9">
+        <v>7</v>
+      </c>
+      <c r="L13" s="9">
+        <v>8</v>
+      </c>
+      <c r="M13" s="9">
+        <v>9</v>
+      </c>
+      <c r="N13" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="21"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="21"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="21"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="21"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>11</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="21"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
         <v>13</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="C27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
         <v>14</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="21"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="C29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
         <v>16</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>156</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="P7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>156</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="21"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
         <v>17</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3</v>
-      </c>
-      <c r="H14" s="9">
-        <v>4</v>
-      </c>
-      <c r="I14" s="9">
-        <v>5</v>
-      </c>
-      <c r="J14" s="9">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9">
-        <v>7</v>
-      </c>
-      <c r="L14" s="9">
-        <v>8</v>
-      </c>
-      <c r="M14" s="9">
-        <v>9</v>
-      </c>
-      <c r="N14" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="16"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
         <v>18</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
-      <c r="P15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="22"/>
-      <c r="P17" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>156</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>3</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
-      <c r="P18" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>156</v>
-      </c>
-      <c r="R18">
-        <v>16</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="22"/>
-      <c r="P19" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>156</v>
-      </c>
-      <c r="R19">
-        <v>20</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>5</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>9</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
-        <v>11</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="22"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
-        <v>13</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="22"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
-        <v>15</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="22"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
-        <v>17</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="16" t="s">
+      <c r="D32" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="E32" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="F32" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="22"/>
+      <c r="G33" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
-        <v>19</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="7">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K34" s="16" t="s">
+      <c r="D34" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" s="16" t="s">
+      <c r="E34" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="N34" s="17" t="s">
+      <c r="F34" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
-        <v>20</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="G34" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="H34" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="I34" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="J34" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="24"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>